--- a/server/doc/数据库设计.xlsx
+++ b/server/doc/数据库设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="user_info" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>user_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_age</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -116,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,13 +359,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <rPh sb="0" eb="1">
-      <t>nian'l</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -776,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -792,19 +777,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -812,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -826,38 +811,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -865,44 +850,30 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -926,133 +897,133 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1077,92 +1048,92 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
